--- a/testData/CreateEntity/CreateEntity_ETRS_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_ETRS_DefaultValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="170">
   <si>
     <t>WorflowName</t>
   </si>
@@ -422,6 +422,117 @@
   </si>
   <si>
     <t>CT: Wed, Jun 05, 2024 at 3:12 PM</t>
+  </si>
+  <si>
+    <t>9840052826</t>
+  </si>
+  <si>
+    <t>9840013375</t>
+  </si>
+  <si>
+    <t>9840054148</t>
+  </si>
+  <si>
+    <t>9840083807</t>
+  </si>
+  <si>
+    <t>9840003936</t>
+  </si>
+  <si>
+    <t>9840052309</t>
+  </si>
+  <si>
+    <t>9840071681</t>
+  </si>
+  <si>
+    <t>9840084770</t>
+  </si>
+  <si>
+    <t>9840037974</t>
+  </si>
+  <si>
+    <t>9840052522</t>
+  </si>
+  <si>
+    <t>9840080318</t>
+  </si>
+  <si>
+    <t>9840077008</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 3:43 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 3:47 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 3:50 PM</t>
+  </si>
+  <si>
+    <t>9840038495</t>
+  </si>
+  <si>
+    <t>9840090708</t>
+  </si>
+  <si>
+    <t>9840059841</t>
+  </si>
+  <si>
+    <t>9840070940</t>
+  </si>
+  <si>
+    <t>9840041333</t>
+  </si>
+  <si>
+    <t>9840069814</t>
+  </si>
+  <si>
+    <t>9840069489</t>
+  </si>
+  <si>
+    <t>9840073799</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:13 PM</t>
+  </si>
+  <si>
+    <t>9840033772</t>
+  </si>
+  <si>
+    <t>9840039239</t>
+  </si>
+  <si>
+    <t>9840027865</t>
+  </si>
+  <si>
+    <t>9840039743</t>
+  </si>
+  <si>
+    <t>9840069083</t>
+  </si>
+  <si>
+    <t>9840062140</t>
+  </si>
+  <si>
+    <t>9840083874</t>
+  </si>
+  <si>
+    <t>9840074986</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:23 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:27 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:30 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:34 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:38 PM</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1138,7 @@
         <v>58</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -1102,7 +1213,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1132,7 +1243,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>101</v>
@@ -1144,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>102</v>
@@ -1410,7 +1521,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>84</v>
@@ -1485,7 +1596,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1515,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>86</v>
@@ -1527,7 +1638,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>87</v>
@@ -1791,7 +1902,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>88</v>
@@ -1866,7 +1977,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1896,7 +2007,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>71</v>
@@ -1908,7 +2019,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>72</v>
@@ -2170,7 +2281,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>92</v>
@@ -2245,7 +2356,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2275,7 +2386,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>94</v>
@@ -2287,7 +2398,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>95</v>
@@ -2670,7 +2781,7 @@
         <v>102</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>132</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_ETRS_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_ETRS_DefaultValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="174">
   <si>
     <t>WorflowName</t>
   </si>
@@ -533,6 +533,18 @@
   </si>
   <si>
     <t>CT: Tue, Jul 16, 2024 at 4:38 PM</t>
+  </si>
+  <si>
+    <t>9840099433</t>
+  </si>
+  <si>
+    <t>9840038682</t>
+  </si>
+  <si>
+    <t>9840096039</t>
+  </si>
+  <si>
+    <t>9840036951</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1150,7 @@
         <v>58</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -1213,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1243,7 +1255,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>101</v>
@@ -1255,7 +1267,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>102</v>
@@ -1521,7 +1533,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>84</v>
@@ -1596,7 +1608,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1626,7 +1638,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>86</v>
@@ -1638,7 +1650,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>87</v>
@@ -1902,7 +1914,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>88</v>
@@ -1977,7 +1989,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2007,7 +2019,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>71</v>
@@ -2019,7 +2031,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>72</v>
@@ -2281,7 +2293,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>92</v>
@@ -2356,7 +2368,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2386,7 +2398,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>94</v>
@@ -2398,7 +2410,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>95</v>
